--- a/data/save_data/2024/bukauskas_j. b..xlsx
+++ b/data/save_data/2024/bukauskas_j. b..xlsx
@@ -502,7 +502,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -536,7 +536,7 @@
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>-6</v>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -638,7 +638,7 @@
         <v>-2</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>2</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
@@ -774,7 +774,7 @@
         <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -808,7 +808,7 @@
         <v>-10</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
         <v>2</v>
@@ -842,7 +842,7 @@
         <v>-2</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -944,7 +944,7 @@
         <v>-1</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>-1</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>

--- a/data/save_data/2024/bukauskas_j. b..xlsx
+++ b/data/save_data/2024/bukauskas_j. b..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>9</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -598,10 +598,10 @@
         <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F5" t="n">
-        <v>-6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>-2</v>
       </c>
       <c r="F6" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -734,10 +734,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -802,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="F11" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -836,10 +836,10 @@
         <v>20</v>
       </c>
       <c r="E12" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="n">
         <v>-1</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-2</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -941,7 +941,7 @@
         <v>-1</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -975,7 +975,7 @@
         <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>3</v>
